--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>DIGITAL_CHANNEL_SEC</t>
   </si>
   <si>
-    <t>06047900194203</t>
-  </si>
-  <si>
     <t>AliAbbas1</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>12345678</t>
+  </si>
+  <si>
+    <t>12757900758503</t>
   </si>
 </sst>
 </file>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,14 +498,16 @@
     <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="15" width="44.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="21.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+    <col min="19" max="19" width="83.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -546,25 +548,25 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
         <v>17</v>
       </c>
       <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
       </c>
       <c r="T1" t="s">
         <v>18</v>
@@ -578,25 +580,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
@@ -605,31 +607,31 @@
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
         <v>20</v>
       </c>
       <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
         <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
       </c>
       <c r="T2" t="s">
         <v>21</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Case</t>
   </si>
@@ -120,9 +120,6 @@
     <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
-    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '06047900194203' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = 'ABBY');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY');COMMIT;END;</t>
-  </si>
-  <si>
     <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
@@ -142,6 +139,21 @@
   </si>
   <si>
     <t>12757900758503</t>
+  </si>
+  <si>
+    <t>No_Of_Acconts_query</t>
+  </si>
+  <si>
+    <t>Bene_Count_Query</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) FROM DC_CUSTOMER_ACCOUNT CA WHERE CA.CUSTOMER_INFO_ID = (SELECT DT.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DT WHERE DT.CUSTOMER_NAME = '{username}')</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) FROM DC_FUND_TRANSFER_BENEFICIARY CA WHERE CA.CUSTOMER_INFO_ID = (SELECT DT.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DT WHERE DT.CUSTOMER_NAME = '{username}') AND CA.IS_DELETED = 0 AND CA.FUND_TRANSFER_TYPE = 'INTER_BRANCH'</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '12757900758503' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = 'ABBY');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY');COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -486,163 +498,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="44.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
-    <col min="19" max="19" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="59.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="44.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" customWidth="1"/>
+    <col min="21" max="21" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
@@ -126,9 +126,6 @@
     <t>Success_Message</t>
   </si>
   <si>
-    <t>Your transaction has been processed successfully.</t>
-  </si>
-  <si>
     <t>02197900643103</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '12757900758503' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = 'ABBY');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY');COMMIT;END;</t>
+  </si>
+  <si>
+    <t>Money sent successfully.</t>
   </si>
 </sst>
 </file>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,10 +530,10 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -598,28 +598,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2">
         <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>23</v>
@@ -631,13 +631,13 @@
         <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
+      <c r="O2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>25</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
@@ -90,9 +90,6 @@
     <t>DIGITAL_CHANNEL_SEC</t>
   </si>
   <si>
-    <t>AliAbbas1</t>
-  </si>
-  <si>
     <t>tran_type_query</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
-    <t>SELECT DT.BENEFICIARY_NAME FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
     <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
@@ -150,10 +144,16 @@
     <t>SELECT COUNT(*) FROM DC_FUND_TRANSFER_BENEFICIARY CA WHERE CA.CUSTOMER_INFO_ID = (SELECT DT.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DT WHERE DT.CUSTOMER_NAME = '{username}') AND CA.IS_DELETED = 0 AND CA.FUND_TRANSFER_TYPE = 'INTER_BRANCH'</t>
   </si>
   <si>
-    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '12757900758503' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = 'ABBY');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY');COMMIT;END;</t>
-  </si>
-  <si>
     <t>Money sent successfully.</t>
+  </si>
+  <si>
+    <t>SELECT DT.FT_TO_ACCOUNT_TITLE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>AliAbbas</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '12757900758503' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = '{username}');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}');COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,10 +530,10 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -566,25 +566,25 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R1" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
@@ -598,31 +598,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2">
         <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
@@ -631,31 +631,31 @@
         <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
         <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s">
         <v>21</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="140">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>When valid Account Details are provided with adding new Bene</t>
-  </si>
-  <si>
     <t>From_Account_Value</t>
   </si>
   <si>
@@ -120,47 +117,358 @@
     <t>Success_Message</t>
   </si>
   <si>
-    <t>02197900643103</t>
-  </si>
-  <si>
     <t>Courier Services</t>
   </si>
   <si>
     <t>12345678</t>
   </si>
   <si>
-    <t>12757900758503</t>
-  </si>
-  <si>
     <t>No_Of_Acconts_query</t>
   </si>
   <si>
-    <t>Bene_Count_Query</t>
-  </si>
-  <si>
-    <t>SELECT COUNT(*) FROM DC_CUSTOMER_ACCOUNT CA WHERE CA.CUSTOMER_INFO_ID = (SELECT DT.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DT WHERE DT.CUSTOMER_NAME = '{username}')</t>
-  </si>
-  <si>
     <t>SELECT COUNT(*) FROM DC_FUND_TRANSFER_BENEFICIARY CA WHERE CA.CUSTOMER_INFO_ID = (SELECT DT.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DT WHERE DT.CUSTOMER_NAME = '{username}') AND CA.IS_DELETED = 0 AND CA.FUND_TRANSFER_TYPE = 'INTER_BRANCH'</t>
   </si>
   <si>
     <t>Money sent successfully.</t>
   </si>
   <si>
-    <t>SELECT DT.FT_TO_ACCOUNT_TITLE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>AliAbbas</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '12757900758503' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = '{username}');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}');COMMIT;END;</t>
+    <t>Automationbene</t>
+  </si>
+  <si>
+    <t>SELECT DT.BENEFICIARY_NAME FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>08527900480003</t>
+  </si>
+  <si>
+    <t>To check fund transfer can not be performed with Insufficient Account Balance</t>
+  </si>
+  <si>
+    <t>23087900855910</t>
+  </si>
+  <si>
+    <t>00537900557403</t>
+  </si>
+  <si>
+    <t>pakistan22</t>
+  </si>
+  <si>
+    <t>16817900545603</t>
+  </si>
+  <si>
+    <t>Automationbenesadasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasdasddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddd</t>
+  </si>
+  <si>
+    <t>09007860111</t>
+  </si>
+  <si>
+    <t>a@sd@..@..@sdsa</t>
+  </si>
+  <si>
+    <t>UK61HABB0022837900558401</t>
+  </si>
+  <si>
+    <t>PK61HABB0022837900558401</t>
+  </si>
+  <si>
+    <t>Model Bank</t>
+  </si>
+  <si>
+    <t>00020000011005730</t>
+  </si>
+  <si>
+    <t>PK47ABPA0002000001100111</t>
+  </si>
+  <si>
+    <t>03334900121</t>
+  </si>
+  <si>
+    <t>United Bank Limited</t>
+  </si>
+  <si>
+    <r>
+      <t>PK95UNIL0308</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00740993</t>
+    </r>
+  </si>
+  <si>
+    <t>03002033052</t>
+  </si>
+  <si>
+    <t>14660017195901</t>
+  </si>
+  <si>
+    <t>03334900120</t>
+  </si>
+  <si>
+    <t>To verify transaction from FCY_Account</t>
+  </si>
+  <si>
+    <t>To verify transaction with zero amount PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction with decimal amount PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify Send money with max limit allowed within HBL fund transfer PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Check that user can not perform fund transfer with invalid transaction password PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify that, if user did not select the purpose of payment &amp; hit the next button  PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify that, if Bene account is blocked PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify Nick field excedding max characters limit PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify Account Number field entering invalid account number PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty nick field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty Amount field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty Mobile Number field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction with invalid Mobile Number PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction with invalid Email field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty transaction password field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty Email field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty Account Number field PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify if customer enters IBAN with country code other than of Pakistan PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction via IBAN PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction if beneficiary is already added via IBAN PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction from Conventional Account if beneficiary is already added via IBAN PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify success transaction of conventional PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction from Conventional Account if beneficiary is already added via conventional account PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To verify transaction if nick is already exist  PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction with max limit allowed limit PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction when bene is already added PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction when nick already exist PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction Via IBAN when conventional account exist PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction Via IBAN PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction Via IBAN when IBAN already exist PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction Via conventional account when IBAN already exist PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify FT transaction on FCY account PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify Konnect transaction max limit exceed PSD_N_AddNew PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify Microfinance IBFT via IBAN transaction max limit exceed PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify success Microfinance IBFT via IBAN PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify success Microfinance IBFT via conventional account PSD_N_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify Send money with max limit allowed within HBL fund transfer PSD_Y_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction max limit exceed PSD_Y_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify Konnect transaction max limit exceed PSD_Y_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify Microfinance IBFT via IBAN transaction max limit exceed PSD_Y_AddNew</t>
+  </si>
+  <si>
+    <t>To Verify success Microfinance IBFT via conventional account PSD_Y_AddNew</t>
+  </si>
+  <si>
+    <t>Bene_Count_Query_InterBranch</t>
+  </si>
+  <si>
+    <t>Bene_Count_Query_InterBank</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) FROM DC_FUND_TRANSFER_BENEFICIARY CA WHERE CA.CUSTOMER_INFO_ID = (SELECT DT.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DT WHERE DT.CUSTOMER_NAME = '{username}') AND CA.IS_DELETED = 0 AND CA.FUND_TRANSFER_TYPE = 'INTER_BANK'</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) FROM DC_CUSTOMER_ACCOUNT CA WHERE CA.CUSTOMER_INFO_ID = (SELECT DT.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DT WHERE DT.CUSTOMER_NAME = '{username}')AND CA.ACCOUNT_TYPE != 'DW'</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBAN1</t>
+  </si>
+  <si>
+    <t>AutomationbeneFCY2</t>
+  </si>
+  <si>
+    <t>Automationbene3</t>
+  </si>
+  <si>
+    <t>Automationbene4</t>
+  </si>
+  <si>
+    <t>06020045410401</t>
+  </si>
+  <si>
+    <t>06027900953001</t>
+  </si>
+  <si>
+    <t>Automationbene5</t>
+  </si>
+  <si>
+    <t>Automationbene6</t>
+  </si>
+  <si>
+    <t>Automationbene7</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBAN8</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBAN9</t>
+  </si>
+  <si>
+    <t>Automationbene10</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBAN11</t>
+  </si>
+  <si>
+    <t>Automationbene12</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBAN10</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFT14</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFT15</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFT16</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTIBAN18</t>
+  </si>
+  <si>
+    <t>PK97BAHL1108009500890601</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTIBAN19</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTIBAN20</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFT21</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTPSDN22</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTPSDN23</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTMF24</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTMF25</t>
+  </si>
+  <si>
+    <t>AutomationbenePSDY26</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTPSDY27</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTPSDY28</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTPSDY29</t>
+  </si>
+  <si>
+    <t>AutomationbeneIBFTMF30</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +496,31 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="MyFontLight"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF526163"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,13 +543,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,66 +846,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="59.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="44.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" customWidth="1"/>
-    <col min="21" max="21" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="59.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="44.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" customWidth="1"/>
+    <col min="22" max="22" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>13</v>
@@ -566,109 +914,3249 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>15615615615611</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="J9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="6">
+        <v>23087900941903</v>
+      </c>
+      <c r="I14" s="2">
+        <v>150.55000000000001</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>23089999102580</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" t="s">
+        <v>30</v>
+      </c>
+      <c r="V17" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6">
+        <v>24460094903010</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="6">
+        <v>24460094904501</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" t="s">
+        <v>20</v>
+      </c>
+      <c r="X19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="6">
+        <v>24460099464901</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" t="s">
+        <v>20</v>
+      </c>
+      <c r="X20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" t="s">
+        <v>20</v>
+      </c>
+      <c r="X21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" t="s">
+        <v>38</v>
+      </c>
+      <c r="W22" t="s">
+        <v>20</v>
+      </c>
+      <c r="X22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I23" s="2">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="J23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="P23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" t="s">
+        <v>20</v>
+      </c>
+      <c r="X23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>22</v>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" t="s">
+        <v>38</v>
+      </c>
+      <c r="W24" t="s">
+        <v>20</v>
+      </c>
+      <c r="X24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" t="s">
+        <v>38</v>
+      </c>
+      <c r="W25" t="s">
+        <v>20</v>
+      </c>
+      <c r="X25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" t="s">
+        <v>28</v>
+      </c>
+      <c r="U26" t="s">
+        <v>30</v>
+      </c>
+      <c r="V26" t="s">
+        <v>38</v>
+      </c>
+      <c r="W26" t="s">
+        <v>20</v>
+      </c>
+      <c r="X26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="2">
+        <v>25001</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" t="s">
+        <v>19</v>
+      </c>
+      <c r="T27" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" t="s">
+        <v>38</v>
+      </c>
+      <c r="W27" t="s">
+        <v>20</v>
+      </c>
+      <c r="X27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" t="s">
+        <v>19</v>
+      </c>
+      <c r="T28" t="s">
+        <v>28</v>
+      </c>
+      <c r="U28" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" t="s">
+        <v>38</v>
+      </c>
+      <c r="W28" t="s">
+        <v>20</v>
+      </c>
+      <c r="X28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" t="s">
+        <v>29</v>
+      </c>
+      <c r="S29" t="s">
+        <v>19</v>
+      </c>
+      <c r="T29" t="s">
+        <v>28</v>
+      </c>
+      <c r="U29" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" t="s">
+        <v>38</v>
+      </c>
+      <c r="W29" t="s">
+        <v>20</v>
+      </c>
+      <c r="X29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" t="s">
+        <v>19</v>
+      </c>
+      <c r="T30" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" t="s">
+        <v>38</v>
+      </c>
+      <c r="W30" t="s">
+        <v>20</v>
+      </c>
+      <c r="X30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" t="s">
+        <v>28</v>
+      </c>
+      <c r="U31" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31" t="s">
+        <v>38</v>
+      </c>
+      <c r="W31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" t="s">
+        <v>19</v>
+      </c>
+      <c r="T32" t="s">
+        <v>28</v>
+      </c>
+      <c r="U32" t="s">
+        <v>30</v>
+      </c>
+      <c r="V32" t="s">
+        <v>38</v>
+      </c>
+      <c r="W32" t="s">
+        <v>20</v>
+      </c>
+      <c r="X32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" t="s">
+        <v>29</v>
+      </c>
+      <c r="S33" t="s">
+        <v>19</v>
+      </c>
+      <c r="T33" t="s">
+        <v>28</v>
+      </c>
+      <c r="U33" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33" t="s">
+        <v>38</v>
+      </c>
+      <c r="W33" t="s">
+        <v>20</v>
+      </c>
+      <c r="X33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" t="s">
+        <v>19</v>
+      </c>
+      <c r="T34" t="s">
+        <v>28</v>
+      </c>
+      <c r="U34" t="s">
+        <v>30</v>
+      </c>
+      <c r="V34" t="s">
+        <v>38</v>
+      </c>
+      <c r="W34" t="s">
+        <v>20</v>
+      </c>
+      <c r="X34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="2">
+        <v>5001</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T35" t="s">
+        <v>28</v>
+      </c>
+      <c r="U35" t="s">
+        <v>30</v>
+      </c>
+      <c r="V35" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="2">
+        <v>5001</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" t="s">
+        <v>29</v>
+      </c>
+      <c r="S36" t="s">
+        <v>19</v>
+      </c>
+      <c r="T36" t="s">
+        <v>28</v>
+      </c>
+      <c r="U36" t="s">
+        <v>30</v>
+      </c>
+      <c r="V36" t="s">
+        <v>38</v>
+      </c>
+      <c r="W36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1111</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R37" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" t="s">
+        <v>19</v>
+      </c>
+      <c r="T37" t="s">
+        <v>28</v>
+      </c>
+      <c r="U37" t="s">
+        <v>30</v>
+      </c>
+      <c r="V37" t="s">
+        <v>38</v>
+      </c>
+      <c r="W37" t="s">
+        <v>20</v>
+      </c>
+      <c r="X37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1111</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R38" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T38" t="s">
+        <v>28</v>
+      </c>
+      <c r="U38" t="s">
+        <v>30</v>
+      </c>
+      <c r="V38" t="s">
+        <v>38</v>
+      </c>
+      <c r="W38" t="s">
+        <v>20</v>
+      </c>
+      <c r="X38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I39" s="2">
+        <v>150001</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R39" t="s">
+        <v>29</v>
+      </c>
+      <c r="S39" t="s">
+        <v>19</v>
+      </c>
+      <c r="T39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U39" t="s">
+        <v>30</v>
+      </c>
+      <c r="V39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="2">
+        <v>150001</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T40" t="s">
+        <v>28</v>
+      </c>
+      <c r="U40" t="s">
+        <v>30</v>
+      </c>
+      <c r="V40" t="s">
+        <v>38</v>
+      </c>
+      <c r="W40" t="s">
+        <v>20</v>
+      </c>
+      <c r="X40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="2">
+        <v>15001</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R41" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" t="s">
+        <v>19</v>
+      </c>
+      <c r="T41" t="s">
+        <v>28</v>
+      </c>
+      <c r="U41" t="s">
+        <v>30</v>
+      </c>
+      <c r="V41" t="s">
+        <v>38</v>
+      </c>
+      <c r="W41" t="s">
+        <v>20</v>
+      </c>
+      <c r="X41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="2">
+        <v>15001</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S42" t="s">
+        <v>19</v>
+      </c>
+      <c r="T42" t="s">
+        <v>28</v>
+      </c>
+      <c r="U42" t="s">
+        <v>30</v>
+      </c>
+      <c r="V42" t="s">
+        <v>38</v>
+      </c>
+      <c r="W42" t="s">
+        <v>20</v>
+      </c>
+      <c r="X42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="2">
+        <v>10001</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R43" t="s">
+        <v>29</v>
+      </c>
+      <c r="S43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T43" t="s">
+        <v>28</v>
+      </c>
+      <c r="U43" t="s">
+        <v>30</v>
+      </c>
+      <c r="V43" t="s">
+        <v>38</v>
+      </c>
+      <c r="W43" t="s">
+        <v>20</v>
+      </c>
+      <c r="X43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="6">
+        <v>22837900558401</v>
+      </c>
+      <c r="I44" s="2">
+        <v>25001</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R44" t="s">
+        <v>29</v>
+      </c>
+      <c r="S44" t="s">
+        <v>19</v>
+      </c>
+      <c r="T44" t="s">
+        <v>28</v>
+      </c>
+      <c r="U44" t="s">
+        <v>30</v>
+      </c>
+      <c r="V44" t="s">
+        <v>38</v>
+      </c>
+      <c r="W44" t="s">
+        <v>20</v>
+      </c>
+      <c r="X44" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="M44" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="M6" r:id="rId6"/>
+    <hyperlink ref="M7" r:id="rId7"/>
+    <hyperlink ref="M8" r:id="rId8"/>
+    <hyperlink ref="M9" r:id="rId9"/>
+    <hyperlink ref="M11" r:id="rId10"/>
+    <hyperlink ref="M12" r:id="rId11"/>
+    <hyperlink ref="M13" r:id="rId12"/>
+    <hyperlink ref="M14" r:id="rId13"/>
+    <hyperlink ref="M15" r:id="rId14"/>
+    <hyperlink ref="M16" r:id="rId15"/>
+    <hyperlink ref="M17" r:id="rId16"/>
+    <hyperlink ref="M18" r:id="rId17"/>
+    <hyperlink ref="M19" r:id="rId18"/>
+    <hyperlink ref="M21" r:id="rId19"/>
+    <hyperlink ref="M22" r:id="rId20"/>
+    <hyperlink ref="M24" r:id="rId21"/>
+    <hyperlink ref="M23" r:id="rId22"/>
+    <hyperlink ref="M25" r:id="rId23"/>
+    <hyperlink ref="M26" r:id="rId24"/>
+    <hyperlink ref="M27" r:id="rId25"/>
+    <hyperlink ref="M28" r:id="rId26"/>
+    <hyperlink ref="M29" r:id="rId27"/>
+    <hyperlink ref="M30" r:id="rId28"/>
+    <hyperlink ref="M31" r:id="rId29"/>
+    <hyperlink ref="M32" r:id="rId30"/>
+    <hyperlink ref="M33" r:id="rId31"/>
+    <hyperlink ref="M34" r:id="rId32"/>
+    <hyperlink ref="M35" r:id="rId33"/>
+    <hyperlink ref="M36" r:id="rId34"/>
+    <hyperlink ref="M37" r:id="rId35"/>
+    <hyperlink ref="M38" r:id="rId36"/>
+    <hyperlink ref="M39" r:id="rId37"/>
+    <hyperlink ref="M40" r:id="rId38"/>
+    <hyperlink ref="M41" r:id="rId39"/>
+    <hyperlink ref="M42" r:id="rId40"/>
+    <hyperlink ref="M43" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
 </worksheet>
 </file>
--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="140">
   <si>
     <t>Case</t>
   </si>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -951,9 +951,6 @@
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
       <c r="C2" t="s">
         <v>104</v>
       </c>
@@ -1019,15 +1016,15 @@
       </c>
       <c r="X2" t="s">
         <v>21</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
       <c r="C3" t="s">
         <v>104</v>
       </c>
@@ -1093,15 +1090,15 @@
       </c>
       <c r="X3" t="s">
         <v>21</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
       <c r="C4" t="s">
         <v>104</v>
       </c>
@@ -1167,15 +1164,15 @@
       </c>
       <c r="X4" t="s">
         <v>21</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
       <c r="C5" t="s">
         <v>104</v>
       </c>
@@ -1241,15 +1238,15 @@
       </c>
       <c r="X5" t="s">
         <v>21</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
       <c r="C6" t="s">
         <v>104</v>
       </c>
@@ -1314,14 +1311,14 @@
       <c r="X6" t="s">
         <v>21</v>
       </c>
+      <c r="Y6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
       <c r="C7" t="s">
         <v>104</v>
       </c>
@@ -1387,15 +1384,15 @@
       </c>
       <c r="X7" t="s">
         <v>21</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
       <c r="C8" t="s">
         <v>104</v>
       </c>
@@ -1460,14 +1457,14 @@
       <c r="X8" t="s">
         <v>21</v>
       </c>
+      <c r="Y8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
-        <v>138</v>
-      </c>
       <c r="C9" t="s">
         <v>104</v>
       </c>
@@ -1533,15 +1530,15 @@
       </c>
       <c r="X9" t="s">
         <v>21</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
       <c r="C10" t="s">
         <v>104</v>
       </c>
@@ -1607,15 +1604,15 @@
       </c>
       <c r="X10" t="s">
         <v>21</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
-        <v>138</v>
-      </c>
       <c r="C11" t="s">
         <v>104</v>
       </c>
@@ -1680,14 +1677,14 @@
       <c r="X11" t="s">
         <v>21</v>
       </c>
+      <c r="Y11" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
       <c r="C12" t="s">
         <v>104</v>
       </c>
@@ -1753,15 +1750,15 @@
       </c>
       <c r="X12" t="s">
         <v>21</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
       <c r="C13" t="s">
         <v>104</v>
       </c>
@@ -1827,15 +1824,15 @@
       </c>
       <c r="X13" t="s">
         <v>21</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
-        <v>139</v>
-      </c>
       <c r="C14" t="s">
         <v>104</v>
       </c>
@@ -1901,15 +1898,15 @@
       </c>
       <c r="X14" t="s">
         <v>21</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" t="s">
-        <v>138</v>
-      </c>
       <c r="C15" t="s">
         <v>104</v>
       </c>
@@ -1975,15 +1972,15 @@
       </c>
       <c r="X15" t="s">
         <v>21</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
-        <v>139</v>
-      </c>
       <c r="C16" t="s">
         <v>104</v>
       </c>
@@ -2050,14 +2047,14 @@
       <c r="X16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
-        <v>139</v>
-      </c>
       <c r="C17" t="s">
         <v>104</v>
       </c>
@@ -2121,14 +2118,14 @@
       <c r="X17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="s">
-        <v>139</v>
-      </c>
       <c r="C18" t="s">
         <v>104</v>
       </c>
@@ -2192,14 +2189,14 @@
       <c r="X18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
-        <v>138</v>
-      </c>
       <c r="C19" t="s">
         <v>104</v>
       </c>
@@ -2263,14 +2260,14 @@
       <c r="X19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>74</v>
       </c>
-      <c r="B20" t="s">
-        <v>139</v>
-      </c>
       <c r="C20" t="s">
         <v>104</v>
       </c>
@@ -2335,14 +2332,14 @@
       <c r="X20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
-        <v>139</v>
-      </c>
       <c r="C21" t="s">
         <v>104</v>
       </c>
@@ -2409,14 +2406,14 @@
       <c r="X21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
       <c r="C22" t="s">
         <v>104</v>
       </c>
@@ -2483,14 +2480,14 @@
       <c r="X22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
-      <c r="B23" t="s">
-        <v>139</v>
-      </c>
       <c r="C23" t="s">
         <v>104</v>
       </c>
@@ -2557,14 +2554,14 @@
       <c r="X23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
       <c r="C24" t="s">
         <v>104</v>
       </c>
@@ -2631,14 +2628,14 @@
       <c r="X24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" t="s">
-        <v>138</v>
-      </c>
       <c r="C25" t="s">
         <v>104</v>
       </c>
@@ -2705,14 +2702,14 @@
       <c r="X25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
       <c r="C26" t="s">
         <v>104</v>
       </c>
@@ -2779,14 +2776,14 @@
       <c r="X26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
       <c r="C27" t="s">
         <v>104</v>
       </c>
@@ -2853,14 +2850,14 @@
       <c r="X27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
       <c r="C28" t="s">
         <v>104</v>
       </c>
@@ -2927,14 +2924,14 @@
       <c r="X28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
-      <c r="B29" t="s">
-        <v>138</v>
-      </c>
       <c r="C29" t="s">
         <v>104</v>
       </c>
@@ -3001,14 +2998,14 @@
       <c r="X29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" t="s">
-        <v>138</v>
-      </c>
       <c r="C30" t="s">
         <v>104</v>
       </c>
@@ -3075,14 +3072,14 @@
       <c r="X30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
-        <v>138</v>
-      </c>
       <c r="C31" t="s">
         <v>104</v>
       </c>
@@ -3149,14 +3146,14 @@
       <c r="X31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
-      <c r="B32" t="s">
-        <v>139</v>
-      </c>
       <c r="C32" t="s">
         <v>104</v>
       </c>
@@ -3223,14 +3220,14 @@
       <c r="X32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
       <c r="C33" t="s">
         <v>104</v>
       </c>
@@ -3297,14 +3294,14 @@
       <c r="X33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
-      <c r="B34" t="s">
-        <v>139</v>
-      </c>
       <c r="C34" t="s">
         <v>104</v>
       </c>
@@ -3371,14 +3368,14 @@
       <c r="X34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>92</v>
       </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
       <c r="C35" t="s">
         <v>104</v>
       </c>
@@ -3445,14 +3442,14 @@
       <c r="X35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
       <c r="C36" t="s">
         <v>104</v>
       </c>
@@ -3519,14 +3516,14 @@
       <c r="X36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
       <c r="C37" t="s">
         <v>104</v>
       </c>
@@ -3593,14 +3590,14 @@
       <c r="X37" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>95</v>
       </c>
-      <c r="B38" t="s">
-        <v>139</v>
-      </c>
       <c r="C38" t="s">
         <v>104</v>
       </c>
@@ -3667,14 +3664,14 @@
       <c r="X38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
-      <c r="B39" t="s">
-        <v>138</v>
-      </c>
       <c r="C39" t="s">
         <v>104</v>
       </c>
@@ -3741,14 +3738,14 @@
       <c r="X39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" t="s">
-        <v>138</v>
-      </c>
       <c r="C40" t="s">
         <v>104</v>
       </c>
@@ -3815,14 +3812,14 @@
       <c r="X40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>98</v>
       </c>
-      <c r="B41" t="s">
-        <v>138</v>
-      </c>
       <c r="C41" t="s">
         <v>104</v>
       </c>
@@ -3889,14 +3886,14 @@
       <c r="X41" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>99</v>
       </c>
-      <c r="B42" t="s">
-        <v>138</v>
-      </c>
       <c r="C42" t="s">
         <v>104</v>
       </c>
@@ -3963,14 +3960,14 @@
       <c r="X42" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
       <c r="C43" t="s">
         <v>104</v>
       </c>
@@ -4037,14 +4034,14 @@
       <c r="X43" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="B44" t="s">
-        <v>138</v>
-      </c>
       <c r="C44" t="s">
         <v>104</v>
       </c>
@@ -4110,6 +4107,9 @@
       </c>
       <c r="X44" t="s">
         <v>21</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="144">
   <si>
     <t>Case</t>
   </si>
@@ -462,6 +462,18 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FCY_Check</t>
+  </si>
+  <si>
+    <t>conversion_query</t>
+  </si>
+  <si>
+    <t>SELECT * FROM(select V.PACKET from DC_REQ_RES_PACKETS V INNER JOIN DC_TRANSACTION T ON V.TRANSACTION_ID = T.TRANSACTION_ID WHERE T.TRANSACTION_TYPE_ID = 263 AND T.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}' ) AND V.PACKET_TYPE = 'MiSys_RESPONSE' AND V.CREATED_ON &gt;= TRUNC(SYSDATE) ORDER BY V.CREATED_ON DESC) WHERE ROWNUM = 1</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -543,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,6 +576,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -846,3315 +861,3330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="103.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="59.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="44.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" customWidth="1"/>
-    <col min="22" max="22" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="3" max="4" width="59.42578125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="59.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="44.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" customWidth="1"/>
+    <col min="24" max="24" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6">
+      <c r="J2" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>6000</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>19</v>
+      <c r="R2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
+      <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="J3" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I3" s="2">
-        <v>1500</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="2">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
-        <v>19</v>
+      <c r="R3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
       <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6">
+      <c r="J4" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>19</v>
+      <c r="R4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
       <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>6000</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" t="s">
-        <v>19</v>
+      <c r="R5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="J6" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>6000</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" t="s">
-        <v>19</v>
+      <c r="R6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>103</v>
-      </c>
+      <c r="D7"/>
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="6">
+      <c r="J7" s="6">
         <v>15615615615611</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>6000</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" t="s">
-        <v>19</v>
+      <c r="R7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
-      </c>
       <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="6">
+      <c r="J8" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" t="s">
-        <v>19</v>
+      <c r="R8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>103</v>
-      </c>
       <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="6">
+      <c r="J9" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" t="s">
-        <v>19</v>
+      <c r="R9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X9" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="6">
+      <c r="J10" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" t="s">
-        <v>19</v>
+      <c r="R10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X10" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="2">
+      <c r="J11" s="6"/>
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" t="s">
-        <v>19</v>
+      <c r="R11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X11" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
       <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>1500</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" t="s">
-        <v>29</v>
-      </c>
-      <c r="S12" t="s">
-        <v>19</v>
+      <c r="R12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X12" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>91</v>
       </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
       <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>1500</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" t="s">
-        <v>29</v>
-      </c>
-      <c r="S13" t="s">
-        <v>19</v>
+      <c r="R13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U13" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X13" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>103</v>
-      </c>
       <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="6">
+      <c r="J14" s="6">
         <v>23087900941903</v>
       </c>
-      <c r="I14" s="2">
+      <c r="K14" s="2">
         <v>150.55000000000001</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" t="s">
-        <v>19</v>
+      <c r="R14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U14" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X14" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
       <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="6">
+      <c r="J15" s="6">
         <v>23089999102580</v>
       </c>
-      <c r="I15" s="2">
+      <c r="K15" s="2">
         <v>6000</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" t="s">
-        <v>19</v>
+      <c r="R15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U15" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X15" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
       <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="2">
+      <c r="K16" s="2">
         <v>6000</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" t="s">
-        <v>19</v>
+      <c r="R16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X16" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
       <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="2">
+      <c r="K17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" t="s">
-        <v>29</v>
-      </c>
-      <c r="S17" t="s">
-        <v>19</v>
+      <c r="R17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X17" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
-      </c>
       <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="6">
+      <c r="J18" s="6">
         <v>24460094903010</v>
       </c>
-      <c r="I18" s="2">
+      <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" t="s">
-        <v>19</v>
+      <c r="R18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U18" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X18" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
       <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="6">
+      <c r="J19" s="6">
         <v>24460094904501</v>
       </c>
-      <c r="I19" s="2">
+      <c r="K19" s="2">
         <v>1</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19" t="s">
-        <v>19</v>
+      <c r="P19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U19" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W19" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
       <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="6">
+      <c r="J20" s="6">
         <v>24460099464901</v>
       </c>
-      <c r="I20" s="2">
+      <c r="K20" s="2">
         <v>1</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="3"/>
+      <c r="P20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" t="s">
-        <v>19</v>
+      <c r="R20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U20" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V20" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X20" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
       <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="2">
+      <c r="K21" s="2">
         <v>1500</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" t="s">
-        <v>29</v>
-      </c>
-      <c r="S21" t="s">
-        <v>19</v>
+      <c r="R21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U21" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W21" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X21" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
-      </c>
       <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="2">
+      <c r="K22" s="2">
         <v>1500</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" t="s">
-        <v>29</v>
-      </c>
-      <c r="S22" t="s">
-        <v>19</v>
+      <c r="R22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U22" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W22" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X22" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
       <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="6">
+      <c r="J23" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I23" s="2">
+      <c r="K23" s="2">
         <v>10</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" t="s">
-        <v>29</v>
-      </c>
-      <c r="S23" t="s">
-        <v>19</v>
+      <c r="R23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U23" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W23" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X23" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>79</v>
       </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>103</v>
-      </c>
       <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="6">
+      <c r="J24" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I24" s="2">
+      <c r="K24" s="2">
         <v>1500</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" t="s">
-        <v>19</v>
+      <c r="R24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U24" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W24" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X24" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>81</v>
       </c>
-      <c r="C25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" t="s">
-        <v>103</v>
-      </c>
       <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="6">
+      <c r="J25" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I25" s="2">
+      <c r="K25" s="2">
         <v>1500</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" t="s">
-        <v>29</v>
-      </c>
-      <c r="S25" t="s">
-        <v>19</v>
+      <c r="R25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U25" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V25" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W25" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X25" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
       <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="J26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="2">
+      <c r="K26" s="2">
         <v>1500</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" t="s">
-        <v>19</v>
+      <c r="R26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U26" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V26" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W26" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X26" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
       <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="2">
+      <c r="K27" s="2">
         <v>25001</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" t="s">
-        <v>29</v>
-      </c>
-      <c r="S27" t="s">
-        <v>19</v>
+      <c r="R27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U27" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W27" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X27" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>84</v>
       </c>
-      <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="s">
-        <v>103</v>
-      </c>
       <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="2">
+      <c r="K28" s="2">
         <v>1500</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="L28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" t="s">
-        <v>29</v>
-      </c>
-      <c r="S28" t="s">
-        <v>19</v>
+      <c r="R28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U28" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W28" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X28" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
       <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="2">
+      <c r="K29" s="2">
         <v>1500</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" t="s">
-        <v>29</v>
-      </c>
-      <c r="S29" t="s">
-        <v>19</v>
+      <c r="R29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U29" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V29" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W29" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X29" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
       <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="J30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="2">
+      <c r="K30" s="2">
         <v>1500</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="L30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" t="s">
-        <v>29</v>
-      </c>
-      <c r="S30" t="s">
-        <v>19</v>
+      <c r="R30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W30" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X30" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>87</v>
       </c>
-      <c r="C31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="J31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="2">
+      <c r="K31" s="2">
         <v>1500</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" t="s">
-        <v>19</v>
+      <c r="R31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U31" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V31" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W31" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X31" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>88</v>
       </c>
-      <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s">
-        <v>103</v>
-      </c>
       <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="J32" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I32" s="2">
+      <c r="K32" s="2">
         <v>1500</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="L32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" t="s">
-        <v>29</v>
-      </c>
-      <c r="S32" t="s">
-        <v>19</v>
+      <c r="R32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U32" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V32" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W32" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X32" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" t="s">
-        <v>103</v>
-      </c>
       <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I33" s="2">
+      <c r="K33" s="2">
         <v>1500</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" t="s">
-        <v>29</v>
-      </c>
-      <c r="S33" t="s">
-        <v>19</v>
+      <c r="R33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U33" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V33" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W33" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X33" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>90</v>
       </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
-      </c>
       <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="2">
+      <c r="K34" s="2">
         <v>1500</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="L34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" t="s">
-        <v>29</v>
-      </c>
-      <c r="S34" t="s">
-        <v>19</v>
+      <c r="R34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U34" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V34" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W34" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X34" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>92</v>
       </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
       <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="2">
+      <c r="K35" s="2">
         <v>5001</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" t="s">
-        <v>29</v>
-      </c>
-      <c r="S35" t="s">
-        <v>19</v>
+      <c r="R35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U35" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V35" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W35" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X35" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
         <v>93</v>
       </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" t="s">
-        <v>103</v>
-      </c>
       <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>55</v>
       </c>
-      <c r="I36" s="2">
+      <c r="K36" s="2">
         <v>5001</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" t="s">
-        <v>29</v>
-      </c>
-      <c r="S36" t="s">
-        <v>19</v>
+      <c r="R36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U36" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V36" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W36" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X36" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA36" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
         <v>94</v>
       </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" t="s">
-        <v>103</v>
-      </c>
       <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>55</v>
       </c>
-      <c r="I37" s="2">
+      <c r="K37" s="2">
         <v>1111</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="L37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O37" s="1" t="s">
+      <c r="P37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" t="s">
-        <v>29</v>
-      </c>
-      <c r="S37" t="s">
-        <v>19</v>
+      <c r="R37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U37" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V37" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W37" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X37" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
         <v>95</v>
       </c>
-      <c r="C38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" t="s">
-        <v>103</v>
-      </c>
       <c r="E38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>1111</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="L38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="1" t="s">
+      <c r="P38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" t="s">
-        <v>29</v>
-      </c>
-      <c r="S38" t="s">
-        <v>19</v>
+      <c r="R38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U38" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V38" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W38" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X38" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA38" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
         <v>96</v>
       </c>
-      <c r="C39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" t="s">
-        <v>103</v>
-      </c>
       <c r="E39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="6">
+      <c r="J39" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I39" s="2">
+      <c r="K39" s="2">
         <v>150001</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="L39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" t="s">
-        <v>29</v>
-      </c>
-      <c r="S39" t="s">
-        <v>19</v>
+      <c r="R39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U39" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V39" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W39" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X39" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" t="s">
-        <v>103</v>
-      </c>
       <c r="E40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="J40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="2">
+      <c r="K40" s="2">
         <v>150001</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" t="s">
-        <v>29</v>
-      </c>
-      <c r="S40" t="s">
-        <v>19</v>
+      <c r="R40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U40" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V40" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W40" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X40" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
         <v>98</v>
       </c>
-      <c r="C41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" t="s">
-        <v>103</v>
-      </c>
       <c r="E41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="J41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I41" s="2">
+      <c r="K41" s="2">
         <v>15001</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" t="s">
-        <v>29</v>
-      </c>
-      <c r="S41" t="s">
-        <v>19</v>
+      <c r="R41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U41" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V41" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W41" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X41" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
         <v>99</v>
       </c>
-      <c r="C42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" t="s">
-        <v>103</v>
-      </c>
       <c r="E42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
         <v>55</v>
       </c>
-      <c r="I42" s="2">
+      <c r="K42" s="2">
         <v>15001</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="L42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" t="s">
-        <v>29</v>
-      </c>
-      <c r="S42" t="s">
-        <v>19</v>
+      <c r="R42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U42" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V42" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W42" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X42" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA42" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
         <v>100</v>
       </c>
-      <c r="C43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" t="s">
-        <v>103</v>
-      </c>
       <c r="E43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="2">
+      <c r="K43" s="2">
         <v>10001</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="L43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" t="s">
-        <v>29</v>
-      </c>
-      <c r="S43" t="s">
-        <v>19</v>
+      <c r="R43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U43" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V43" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W43" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X43" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA43" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="C44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" t="s">
-        <v>103</v>
-      </c>
       <c r="E44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="6">
+      <c r="J44" s="6">
         <v>22837900558401</v>
       </c>
-      <c r="I44" s="2">
+      <c r="K44" s="2">
         <v>25001</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="L44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O44" s="1" t="s">
+      <c r="P44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44" t="s">
-        <v>29</v>
-      </c>
-      <c r="S44" t="s">
-        <v>19</v>
+      <c r="R44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U44" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="V44" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W44" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X44" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA44" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="M4" r:id="rId3"/>
-    <hyperlink ref="M44" r:id="rId4"/>
-    <hyperlink ref="M5" r:id="rId5"/>
-    <hyperlink ref="M6" r:id="rId6"/>
-    <hyperlink ref="M7" r:id="rId7"/>
-    <hyperlink ref="M8" r:id="rId8"/>
-    <hyperlink ref="M9" r:id="rId9"/>
-    <hyperlink ref="M11" r:id="rId10"/>
-    <hyperlink ref="M12" r:id="rId11"/>
-    <hyperlink ref="M13" r:id="rId12"/>
-    <hyperlink ref="M14" r:id="rId13"/>
-    <hyperlink ref="M15" r:id="rId14"/>
-    <hyperlink ref="M16" r:id="rId15"/>
-    <hyperlink ref="M17" r:id="rId16"/>
-    <hyperlink ref="M18" r:id="rId17"/>
-    <hyperlink ref="M19" r:id="rId18"/>
-    <hyperlink ref="M21" r:id="rId19"/>
-    <hyperlink ref="M22" r:id="rId20"/>
-    <hyperlink ref="M24" r:id="rId21"/>
-    <hyperlink ref="M23" r:id="rId22"/>
-    <hyperlink ref="M25" r:id="rId23"/>
-    <hyperlink ref="M26" r:id="rId24"/>
-    <hyperlink ref="M27" r:id="rId25"/>
-    <hyperlink ref="M28" r:id="rId26"/>
-    <hyperlink ref="M29" r:id="rId27"/>
-    <hyperlink ref="M30" r:id="rId28"/>
-    <hyperlink ref="M31" r:id="rId29"/>
-    <hyperlink ref="M32" r:id="rId30"/>
-    <hyperlink ref="M33" r:id="rId31"/>
-    <hyperlink ref="M34" r:id="rId32"/>
-    <hyperlink ref="M35" r:id="rId33"/>
-    <hyperlink ref="M36" r:id="rId34"/>
-    <hyperlink ref="M37" r:id="rId35"/>
-    <hyperlink ref="M38" r:id="rId36"/>
-    <hyperlink ref="M39" r:id="rId37"/>
-    <hyperlink ref="M40" r:id="rId38"/>
-    <hyperlink ref="M41" r:id="rId39"/>
-    <hyperlink ref="M42" r:id="rId40"/>
-    <hyperlink ref="M43" r:id="rId41"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O44" r:id="rId4"/>
+    <hyperlink ref="O5" r:id="rId5"/>
+    <hyperlink ref="O6" r:id="rId6"/>
+    <hyperlink ref="O7" r:id="rId7"/>
+    <hyperlink ref="O8" r:id="rId8"/>
+    <hyperlink ref="O9" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+    <hyperlink ref="O13" r:id="rId12"/>
+    <hyperlink ref="O14" r:id="rId13"/>
+    <hyperlink ref="O15" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="O21" r:id="rId19"/>
+    <hyperlink ref="O22" r:id="rId20"/>
+    <hyperlink ref="O24" r:id="rId21"/>
+    <hyperlink ref="O23" r:id="rId22"/>
+    <hyperlink ref="O25" r:id="rId23"/>
+    <hyperlink ref="O26" r:id="rId24"/>
+    <hyperlink ref="O27" r:id="rId25"/>
+    <hyperlink ref="O28" r:id="rId26"/>
+    <hyperlink ref="O29" r:id="rId27"/>
+    <hyperlink ref="O30" r:id="rId28"/>
+    <hyperlink ref="O31" r:id="rId29"/>
+    <hyperlink ref="O32" r:id="rId30"/>
+    <hyperlink ref="O33" r:id="rId31"/>
+    <hyperlink ref="O34" r:id="rId32"/>
+    <hyperlink ref="O35" r:id="rId33"/>
+    <hyperlink ref="O36" r:id="rId34"/>
+    <hyperlink ref="O37" r:id="rId35"/>
+    <hyperlink ref="O38" r:id="rId36"/>
+    <hyperlink ref="O39" r:id="rId37"/>
+    <hyperlink ref="O40" r:id="rId38"/>
+    <hyperlink ref="O41" r:id="rId39"/>
+    <hyperlink ref="O42" r:id="rId40"/>
+    <hyperlink ref="O43" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
